--- a/biology/Zoologie/Amtocephale/Amtocephale.xlsx
+++ b/biology/Zoologie/Amtocephale/Amtocephale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amtocephale gobiensis
-Amtocephale est un genre éteint de petits dinosaures bipèdes herbivores pachycéphalosaures de la famille des pachycephalosauridés. Il a vécu au cours du Crétacé supérieur (Turonien-Santonien) dans ce qui est aujourd’hui la Mongolie[1]. 
-L'espèce type et seule espèce est Amtocephale gobiensis. Elle a été décrite en 2011 par Mahito Watabe, Khishigjaw Tsogtbaatar et Robert M. Sullivan[1].
+Amtocephale est un genre éteint de petits dinosaures bipèdes herbivores pachycéphalosaures de la famille des pachycephalosauridés. Il a vécu au cours du Crétacé supérieur (Turonien-Santonien) dans ce qui est aujourd’hui la Mongolie. 
+L'espèce type et seule espèce est Amtocephale gobiensis. Elle a été décrite en 2011 par Mahito Watabe, Khishigjaw Tsogtbaatar et Robert M. Sullivan.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Atmocephale combine le nom du site de la découverte du fossile, Amtgai, dans le sud du désert de Gobi, et le mot du grec ancien  kephale/κεφαλη « tête », pour donner « tête d'Atmai », faisant référence à son dôme fronto-pariétal au sommet de son crâne. Le nom spécifique indique également sa provenance du désert de Gobi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Atmocephale combine le nom du site de la découverte du fossile, Amtgai, dans le sud du désert de Gobi, et le mot du grec ancien  kephale/κεφαλη « tête », pour donner « tête d'Atmai », faisant référence à son dôme fronto-pariétal au sommet de son crâne. Le nom spécifique indique également sa provenance du désert de Gobi.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les pachycephalosauridés, Amtocephale montre un sommet du crâne très épais en forme de dôme. L'espèce n'est connue que par ce dôme fronto-pariétal, répertorié MPC-D 100/1203, qui est l'os le plus résistant du squelette, et souvent le seul préservé et fossilisé chez les pachycéphalosaures.
-Ce dôme crânien est formé par la fusion des os frontal et pariétal. Sa longueur est de 5,4 cm, avec une épaisseur maximale de près de 2 cm. La contribution du pariétal dans la longueur totale du dôme est de 41%, la plus forte proportion mesurée sur un pachycephalosauridé[1].
+Ce dôme crânien est formé par la fusion des os frontal et pariétal. Sa longueur est de 5,4 cm, avec une épaisseur maximale de près de 2 cm. La contribution du pariétal dans la longueur totale du dôme est de 41%, la plus forte proportion mesurée sur un pachycephalosauridé.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amtocephale appartient à la famille des Pachycephalosauridae.
-L'analyse phylogénétique réalisée lors de la description du genre démontrerait qu'il s'agit d'un pachycephalosauridé évolué (dérivé), ce qui est a priori déconcertant pour un animal qui serait l'un des plus anciens membres connu de cette famille. Cependant les auteurs relativisent eux-mêmes la valeur de leur analyse qui est basée sur un seul fragment d'os[1].
-Le cladogramme suivant, modifié d'Evans et de ses collègues en 2013[2], montre sa position au sein de cette famille :
+L'analyse phylogénétique réalisée lors de la description du genre démontrerait qu'il s'agit d'un pachycephalosauridé évolué (dérivé), ce qui est a priori déconcertant pour un animal qui serait l'un des plus anciens membres connu de cette famille. Cependant les auteurs relativisent eux-mêmes la valeur de leur analyse qui est basée sur un seul fragment d'os.
+Le cladogramme suivant, modifié d'Evans et de ses collègues en 2013, montre sa position au sein de cette famille :
 Sur les autres projets Wikimedia :
 Amtocephale, sur Wikimedia CommonsAmtocephale, sur Wikispecies
 </t>
